--- a/Falcrum_Trunk/src/com/proj/suite/TRANSMITTALS Suite.xlsx
+++ b/Falcrum_Trunk/src/com/proj/suite/TRANSMITTALS Suite.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LeapThoughtProjectWS\Falcrum_Trunk\src\com\proj\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIWS\Falcrum_Trunk\src\com\proj\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>TCID</t>
   </si>
@@ -45,26 +45,31 @@
     <t>N</t>
   </si>
   <si>
-    <t>Transmittals_New</t>
-  </si>
-  <si>
-    <t>Creates a new Transmittal</t>
-  </si>
-  <si>
     <t>Sprint1</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>Transmittals_New_ConsultantAdvice</t>
+  </si>
+  <si>
+    <t>Transmittals_New_Correspondence</t>
+  </si>
+  <si>
+    <t>Creates a new Transmittal of Type Correspondence</t>
+  </si>
+  <si>
+    <t>Creates a new Transmittal of Type Consultant Advice</t>
+  </si>
+  <si>
+    <t>Transmittals_New_ChangeNote</t>
+  </si>
+  <si>
+    <t>Creates a new Transmittal of Type Change Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -136,11 +141,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="73.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.48828125" collapsed="true"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -523,11 +531,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -535,19 +543,53 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D4">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Sprint1,Sprint2,Sprint3,Sprint4,Sprint5,Sprint6,Sprint7,Sprint8,Sprint9,Sprint10"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Falcrum_Trunk/src/com/proj/suite/TRANSMITTALS Suite.xlsx
+++ b/Falcrum_Trunk/src/com/proj/suite/TRANSMITTALS Suite.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
